--- a/finalp/src/main/webapp/resources/db/BOARD_CATEGORY.xlsx
+++ b/finalp/src/main/webapp/resources/db/BOARD_CATEGORY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,13 +28,13 @@
     <t xml:space="preserve">BOARD_CATEGORY_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">BOARD_CA_STU</t>
+    <t xml:space="preserve">B_CA_STU</t>
   </si>
   <si>
     <t xml:space="preserve">지식 나눔</t>
   </si>
   <si>
-    <t xml:space="preserve">BOARD_CA_PRO</t>
+    <t xml:space="preserve">B_CA_PRO</t>
   </si>
   <si>
     <t xml:space="preserve">물품 나눔</t>
@@ -139,15 +139,15 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.01"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6829268292683"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8439024390244"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8731707317073"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -177,7 +177,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/finalp/src/main/webapp/resources/db/BOARD_CATEGORY.xlsx
+++ b/finalp/src/main/webapp/resources/db/BOARD_CATEGORY.xlsx
@@ -28,13 +28,13 @@
     <t xml:space="preserve">BOARD_CATEGORY_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">B_CA_STU</t>
+    <t xml:space="preserve">BCA-STU</t>
   </si>
   <si>
     <t xml:space="preserve">지식 나눔</t>
   </si>
   <si>
-    <t xml:space="preserve">B_CA_PRO</t>
+    <t xml:space="preserve">BCA-PRO</t>
   </si>
   <si>
     <t xml:space="preserve">물품 나눔</t>
@@ -140,14 +140,14 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6829268292683"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8439024390244"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8731707317073"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.619512195122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0390243902439"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.7756097560976"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
